--- a/Jogos_do_Dia/2023-02-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -869,13 +869,13 @@
         <v>47</v>
       </c>
       <c r="F4">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G4">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="H4">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="I4">
         <v>1.07</v>
@@ -890,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="M4">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N4">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O4">
         <v>1.48</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -973,13 +973,13 @@
         <v>48</v>
       </c>
       <c r="F5">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="G5">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="H5">
-        <v>3.74</v>
+        <v>3.68</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>2.1</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1077,13 +1077,13 @@
         <v>49</v>
       </c>
       <c r="F6">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="G6">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H6">
-        <v>2.67</v>
+        <v>1.85</v>
       </c>
       <c r="I6">
         <v>1.04</v>
@@ -1098,10 +1098,10 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="N6">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O6">
         <v>1.33</v>
@@ -1140,28 +1140,28 @@
         <v>3.5</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AD7">
         <v>1.24</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD8">
         <v>1.25</v>

--- a/Jogos_do_Dia/2023-02-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -709,10 +709,10 @@
         <v>1.46</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>2.6</v>
@@ -813,10 +813,10 @@
         <v>1.13</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -872,10 +872,10 @@
         <v>2.3</v>
       </c>
       <c r="G4">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I4">
         <v>1.07</v>
@@ -890,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="M4">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="N4">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="O4">
         <v>1.48</v>
@@ -973,13 +973,13 @@
         <v>48</v>
       </c>
       <c r="F5">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="G5">
-        <v>3.16</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>3.68</v>
+        <v>3.75</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="N5">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1077,13 +1077,13 @@
         <v>49</v>
       </c>
       <c r="F6">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="G6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H6">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="I6">
         <v>1.04</v>
@@ -1098,10 +1098,10 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="N6">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O6">
         <v>1.33</v>
@@ -1398,16 +1398,16 @@
         <v>3.28</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M9">
         <v>2.15</v>
@@ -1428,13 +1428,13 @@
         <v>1.83</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1452,28 +1452,28 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>
